--- a/hybrid_searchTesting/timings_60_question_DBSF.xlsx
+++ b/hybrid_searchTesting/timings_60_question_DBSF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krisztina_PC\flask-chatbot\hybrid_searchTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4F2D4B-75DA-4F89-99D3-F0974B0A1D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53D82C1-2F43-4EFB-9FC4-00A79F39C4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>felhasznaló kérdése</t>
   </si>
@@ -81,7 +81,7 @@
     <t>Mi az domus?</t>
   </si>
   <si>
-    <t>Sorold fel a PRRG tagjait?</t>
+    <t>orold fel a PRRG tagjait?</t>
   </si>
   <si>
     <t>Mliyen szakterületei vannak a PEDIMCo kutatócsoportnak?</t>
@@ -102,7 +102,7 @@
     <t>Az új média kuatócsoport melyik szakhoz kapcsolodik?</t>
   </si>
   <si>
-    <t>orold fel a DAMERG kutatócsoport Kolozsvári tagjait?</t>
+    <t>Sorold fel a DAMERG kutatócsoport Kolozsvári tagjait?</t>
   </si>
   <si>
     <t>Melyik linken talalálom a acfa kutatási tervét?</t>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>Miből áll a tanárképzés záróvizsga menete?</t>
-  </si>
-  <si>
-    <t>Hol találom a számítástechnika szak záróvizsga útmutatóját?</t>
   </si>
   <si>
     <t>Hol talalálom a matematika-informatika tanszék útmutatójaát?</t>
@@ -623,9 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
+    <sheetView topLeftCell="A38" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -660,19 +655,19 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>2.165</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="C2">
-        <v>1.482</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="D2">
-        <v>0.64100000000000001</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="E2">
-        <v>1.5009999999999999</v>
+        <v>1.379</v>
       </c>
       <c r="F2">
-        <v>5.7889999999999997</v>
+        <v>4.6879999999999997</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -686,22 +681,22 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.43</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="C3">
-        <v>0.47699999999999998</v>
+        <v>2.5590000000000002</v>
       </c>
       <c r="D3">
-        <v>0.55800000000000005</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E3">
-        <v>1.3859999999999999</v>
+        <v>1.528</v>
       </c>
       <c r="F3">
-        <v>2.85</v>
+        <v>5.0529999999999999</v>
       </c>
       <c r="G3">
-        <v>0.93600000000000005</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="H3">
         <v>12</v>
@@ -712,19 +707,19 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.48</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.45200000000000001</v>
+        <v>2.173</v>
       </c>
       <c r="D4">
-        <v>0.51100000000000001</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="E4">
-        <v>1.732</v>
+        <v>1.8480000000000001</v>
       </c>
       <c r="F4">
-        <v>3.1850000000000001</v>
+        <v>5.633</v>
       </c>
       <c r="G4">
         <v>0.89</v>
@@ -738,22 +733,22 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.60599999999999998</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="C5">
-        <v>0.48899999999999999</v>
+        <v>2.6840000000000002</v>
       </c>
       <c r="D5">
-        <v>0.59199999999999997</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="E5">
-        <v>1.5149999999999999</v>
+        <v>1.528</v>
       </c>
       <c r="F5">
-        <v>3.202</v>
+        <v>5.218</v>
       </c>
       <c r="G5">
-        <v>0.877</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="H5">
         <v>27</v>
@@ -764,25 +759,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.34300000000000003</v>
+        <v>0.81</v>
       </c>
       <c r="C6">
-        <v>0.53700000000000003</v>
+        <v>2.306</v>
       </c>
       <c r="D6">
-        <v>0.58199999999999996</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="E6">
-        <v>1.403</v>
+        <v>1.327</v>
       </c>
       <c r="F6">
-        <v>2.8639999999999999</v>
+        <v>4.9960000000000004</v>
       </c>
       <c r="G6">
-        <v>0.88900000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="H6">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -790,19 +785,19 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.39700000000000002</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="C7">
-        <v>0.51800000000000002</v>
+        <v>2.302</v>
       </c>
       <c r="D7">
-        <v>0.55400000000000005</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="E7">
-        <v>1.345</v>
+        <v>1.375</v>
       </c>
       <c r="F7">
-        <v>2.8130000000000002</v>
+        <v>4.6529999999999996</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -816,19 +811,19 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.34</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="C8">
-        <v>0.39200000000000002</v>
+        <v>2.3490000000000002</v>
       </c>
       <c r="D8">
-        <v>0.60199999999999998</v>
+        <v>0.54</v>
       </c>
       <c r="E8">
-        <v>1.7849999999999999</v>
+        <v>1.9970000000000001</v>
       </c>
       <c r="F8">
-        <v>3.1190000000000002</v>
+        <v>5.3390000000000004</v>
       </c>
       <c r="G8">
         <v>0.876</v>
@@ -842,25 +837,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.33100000000000002</v>
+        <v>0.32</v>
       </c>
       <c r="C9">
-        <v>0.41399999999999998</v>
+        <v>2.2909999999999999</v>
       </c>
       <c r="D9">
-        <v>0.747</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="E9">
-        <v>1.6719999999999999</v>
+        <v>1.629</v>
       </c>
       <c r="F9">
-        <v>3.165</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="G9">
-        <v>0.90700000000000003</v>
+        <v>0.97</v>
       </c>
       <c r="H9">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -868,22 +863,22 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.69</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="C10">
-        <v>0.51700000000000002</v>
+        <v>2.54</v>
       </c>
       <c r="D10">
-        <v>0.55200000000000005</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="E10">
-        <v>1.8879999999999999</v>
+        <v>1.95</v>
       </c>
       <c r="F10">
-        <v>3.6469999999999998</v>
+        <v>5.508</v>
       </c>
       <c r="G10">
-        <v>0.91600000000000004</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="H10">
         <v>39</v>
@@ -894,25 +889,25 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.315</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="C11">
-        <v>0.43</v>
+        <v>2.4039999999999999</v>
       </c>
       <c r="D11">
-        <v>0.59399999999999997</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="E11">
-        <v>2.464</v>
+        <v>2.0510000000000002</v>
       </c>
       <c r="F11">
-        <v>3.8029999999999999</v>
+        <v>5.4390000000000001</v>
       </c>
       <c r="G11">
-        <v>0.59399999999999997</v>
+        <v>0.9</v>
       </c>
       <c r="H11">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -920,19 +915,19 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.43099999999999999</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="C12">
-        <v>0.51100000000000001</v>
+        <v>2.2010000000000001</v>
       </c>
       <c r="D12">
-        <v>0.60599999999999998</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="E12">
-        <v>1.446</v>
+        <v>1.4530000000000001</v>
       </c>
       <c r="F12">
-        <v>2.9929999999999999</v>
+        <v>4.5060000000000002</v>
       </c>
       <c r="G12">
         <v>0.96099999999999997</v>
@@ -946,25 +941,25 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.31</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="C13">
-        <v>0.40200000000000002</v>
+        <v>3.7250000000000001</v>
       </c>
       <c r="D13">
-        <v>0.59199999999999997</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="E13">
-        <v>1.03</v>
+        <v>1.161</v>
       </c>
       <c r="F13">
-        <v>2.3340000000000001</v>
+        <v>5.9630000000000001</v>
       </c>
       <c r="G13">
-        <v>0.95</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="H13">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -972,19 +967,19 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.61199999999999999</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="C14">
-        <v>0.55800000000000005</v>
+        <v>2.6459999999999999</v>
       </c>
       <c r="D14">
-        <v>0.59799999999999998</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="E14">
-        <v>1.556</v>
+        <v>1.758</v>
       </c>
       <c r="F14">
-        <v>3.3239999999999998</v>
+        <v>5.4459999999999997</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -998,25 +993,25 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.83299999999999996</v>
+        <v>0.43</v>
       </c>
       <c r="C15">
-        <v>0.50600000000000001</v>
+        <v>2.4420000000000002</v>
       </c>
       <c r="D15">
-        <v>0.54900000000000004</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="E15">
-        <v>1.516</v>
+        <v>2.52</v>
       </c>
       <c r="F15">
-        <v>3.4039999999999999</v>
+        <v>5.992</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1024,25 +1019,25 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.34</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="C16">
-        <v>0.54300000000000004</v>
+        <v>2.214</v>
       </c>
       <c r="D16">
-        <v>0.60499999999999998</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="E16">
-        <v>1.8089999999999999</v>
+        <v>1.857</v>
       </c>
       <c r="F16">
-        <v>3.2970000000000002</v>
+        <v>4.9969999999999999</v>
       </c>
       <c r="G16">
-        <v>0.73</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="H16">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1050,25 +1045,25 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.4</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="C17">
-        <v>0.60399999999999998</v>
+        <v>2.2389999999999999</v>
       </c>
       <c r="D17">
-        <v>0.57599999999999996</v>
+        <v>0.628</v>
       </c>
       <c r="E17">
-        <v>1.6579999999999999</v>
+        <v>1.67</v>
       </c>
       <c r="F17">
-        <v>3.238</v>
+        <v>4.8730000000000002</v>
       </c>
       <c r="G17">
-        <v>0.95199999999999996</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="H17">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1076,19 +1071,19 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.33700000000000002</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="C18">
-        <v>0.437</v>
+        <v>2.2360000000000002</v>
       </c>
       <c r="D18">
-        <v>0.624</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="E18">
-        <v>1.5649999999999999</v>
+        <v>1.85</v>
       </c>
       <c r="F18">
-        <v>2.9630000000000001</v>
+        <v>4.9809999999999999</v>
       </c>
       <c r="G18">
         <v>0.872</v>
@@ -1102,25 +1097,25 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.28000000000000003</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="C19">
-        <v>0.46400000000000002</v>
+        <v>2.3519999999999999</v>
       </c>
       <c r="D19">
-        <v>0.51900000000000002</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="E19">
-        <v>1.2609999999999999</v>
+        <v>1.151</v>
       </c>
       <c r="F19">
-        <v>2.5259999999999998</v>
+        <v>4.3360000000000003</v>
       </c>
       <c r="G19">
-        <v>0.90300000000000002</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="H19">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1128,19 +1123,19 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.36199999999999999</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="C20">
-        <v>0.52500000000000002</v>
+        <v>3.4609999999999999</v>
       </c>
       <c r="D20">
-        <v>0.56899999999999995</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="E20">
-        <v>1.39</v>
+        <v>5.7240000000000002</v>
       </c>
       <c r="F20">
-        <v>2.8479999999999999</v>
+        <v>10.048999999999999</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1154,19 +1149,19 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.29399999999999998</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="C21">
-        <v>0.49</v>
+        <v>2.2709999999999999</v>
       </c>
       <c r="D21">
-        <v>0.52600000000000002</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="E21">
-        <v>1.2230000000000001</v>
+        <v>1.9179999999999999</v>
       </c>
       <c r="F21">
-        <v>2.5350000000000001</v>
+        <v>5.5949999999999998</v>
       </c>
       <c r="G21">
         <v>0.88400000000000001</v>
@@ -1180,22 +1175,22 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.39800000000000002</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="C22">
-        <v>0.495</v>
+        <v>2.42</v>
       </c>
       <c r="D22">
-        <v>0.58599999999999997</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="E22">
-        <v>1.5049999999999999</v>
+        <v>1.4610000000000001</v>
       </c>
       <c r="F22">
-        <v>2.984</v>
+        <v>4.7789999999999999</v>
       </c>
       <c r="G22">
-        <v>0.89600000000000002</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="H22">
         <v>36</v>
@@ -1206,22 +1201,22 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.316</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="C23">
-        <v>0.42199999999999999</v>
+        <v>2.548</v>
       </c>
       <c r="D23">
-        <v>0.56499999999999995</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="E23">
-        <v>1.827</v>
+        <v>1.466</v>
       </c>
       <c r="F23">
-        <v>3.129</v>
+        <v>5.0030000000000001</v>
       </c>
       <c r="G23">
-        <v>0.66600000000000004</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="H23">
         <v>37</v>
@@ -1232,19 +1227,19 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.309</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="C24">
-        <v>0.48599999999999999</v>
+        <v>2.3639999999999999</v>
       </c>
       <c r="D24">
-        <v>0.59899999999999998</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="E24">
-        <v>1.6990000000000001</v>
+        <v>1.583</v>
       </c>
       <c r="F24">
-        <v>3.0939999999999999</v>
+        <v>4.8689999999999998</v>
       </c>
       <c r="G24">
         <v>0.92100000000000004</v>
@@ -1258,22 +1253,22 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.33900000000000002</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="C25">
-        <v>0.41</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="D25">
-        <v>0.63200000000000001</v>
+        <v>0.746</v>
       </c>
       <c r="E25">
-        <v>1.8819999999999999</v>
+        <v>1.7649999999999999</v>
       </c>
       <c r="F25">
-        <v>3.2629999999999999</v>
+        <v>5.399</v>
       </c>
       <c r="G25">
-        <v>0.85699999999999998</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="H25">
         <v>38</v>
@@ -1284,22 +1279,22 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.29799999999999999</v>
+        <v>0.312</v>
       </c>
       <c r="C26">
-        <v>0.46100000000000002</v>
+        <v>2.3980000000000001</v>
       </c>
       <c r="D26">
-        <v>0.55300000000000005</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="E26">
-        <v>1.526</v>
+        <v>1.3420000000000001</v>
       </c>
       <c r="F26">
-        <v>2.8370000000000002</v>
+        <v>4.6669999999999998</v>
       </c>
       <c r="G26">
-        <v>0.77800000000000002</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="H26">
         <v>35</v>
@@ -1310,19 +1305,19 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.63400000000000001</v>
+        <v>0.245</v>
       </c>
       <c r="C27">
-        <v>0.41299999999999998</v>
+        <v>2.1920000000000002</v>
       </c>
       <c r="D27">
-        <v>0.59699999999999998</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="E27">
-        <v>1.345</v>
+        <v>1.429</v>
       </c>
       <c r="F27">
-        <v>2.99</v>
+        <v>4.4729999999999999</v>
       </c>
       <c r="G27">
         <v>0.92</v>
@@ -1336,19 +1331,19 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.35499999999999998</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="C28">
-        <v>0.45100000000000001</v>
+        <v>2.177</v>
       </c>
       <c r="D28">
-        <v>0.626</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="E28">
-        <v>2.3610000000000002</v>
+        <v>2.8690000000000002</v>
       </c>
       <c r="F28">
-        <v>3.7930000000000001</v>
+        <v>5.9550000000000001</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1362,19 +1357,19 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.371</v>
+        <v>0.375</v>
       </c>
       <c r="C29">
-        <v>0.46600000000000003</v>
+        <v>2.2869999999999999</v>
       </c>
       <c r="D29">
-        <v>0.53700000000000003</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="E29">
-        <v>1.5509999999999999</v>
+        <v>1.331</v>
       </c>
       <c r="F29">
-        <v>2.9249999999999998</v>
+        <v>4.5839999999999996</v>
       </c>
       <c r="G29">
         <v>0.90300000000000002</v>
@@ -1388,22 +1383,22 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.37</v>
+        <v>1.5840000000000001</v>
       </c>
       <c r="C30">
-        <v>0.47799999999999998</v>
+        <v>3.8170000000000002</v>
       </c>
       <c r="D30">
-        <v>0.63100000000000001</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="E30">
-        <v>1.3979999999999999</v>
+        <v>1.44</v>
       </c>
       <c r="F30">
-        <v>2.8769999999999998</v>
+        <v>7.4560000000000004</v>
       </c>
       <c r="G30">
-        <v>0.93500000000000005</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="H30">
         <v>31</v>
@@ -1414,25 +1409,25 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.32400000000000001</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="C31">
-        <v>0.498</v>
+        <v>3.903</v>
       </c>
       <c r="D31">
-        <v>0.61399999999999999</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="E31">
-        <v>1.2450000000000001</v>
+        <v>1.925</v>
       </c>
       <c r="F31">
-        <v>2.681</v>
+        <v>7.0590000000000002</v>
       </c>
       <c r="G31">
-        <v>0.84599999999999997</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="H31">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1440,25 +1435,25 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.33</v>
+        <v>1.4379999999999999</v>
       </c>
       <c r="C32">
-        <v>0.49099999999999999</v>
+        <v>3.6829999999999998</v>
       </c>
       <c r="D32">
-        <v>0.625</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="E32">
-        <v>2.12</v>
+        <v>1.353</v>
       </c>
       <c r="F32">
-        <v>3.5659999999999998</v>
+        <v>7.04</v>
       </c>
       <c r="G32">
-        <v>0.59699999999999998</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="H32">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1466,22 +1461,22 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.44</v>
+        <v>1.8260000000000001</v>
       </c>
       <c r="C33">
-        <v>0.48599999999999999</v>
+        <v>4.42</v>
       </c>
       <c r="D33">
-        <v>0.59499999999999997</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="E33">
-        <v>1.494</v>
+        <v>1.5509999999999999</v>
       </c>
       <c r="F33">
-        <v>3.0150000000000001</v>
+        <v>8.3659999999999997</v>
       </c>
       <c r="G33">
-        <v>0.91900000000000004</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="H33">
         <v>36</v>
@@ -1492,25 +1487,25 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.36199999999999999</v>
+        <v>2.6309999999999998</v>
       </c>
       <c r="C34">
-        <v>0.47099999999999997</v>
+        <v>4.2210000000000001</v>
       </c>
       <c r="D34">
-        <v>0.58399999999999996</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="E34">
-        <v>1.47</v>
+        <v>1.458</v>
       </c>
       <c r="F34">
-        <v>2.8860000000000001</v>
+        <v>8.8640000000000008</v>
       </c>
       <c r="G34">
-        <v>0.71699999999999997</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="H34">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1518,25 +1513,25 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.38</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="C35">
-        <v>0.56499999999999995</v>
+        <v>5.2220000000000004</v>
       </c>
       <c r="D35">
-        <v>0.59499999999999997</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="E35">
-        <v>1.423</v>
+        <v>1.35</v>
       </c>
       <c r="F35">
-        <v>2.9630000000000001</v>
+        <v>7.9619999999999997</v>
       </c>
       <c r="G35">
-        <v>0.85899999999999999</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="H35">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1544,25 +1539,25 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.27300000000000002</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="C36">
-        <v>0.438</v>
+        <v>4.7309999999999999</v>
       </c>
       <c r="D36">
-        <v>0.56899999999999995</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="E36">
-        <v>1.454</v>
+        <v>1.42</v>
       </c>
       <c r="F36">
-        <v>2.7330000000000001</v>
+        <v>7.7229999999999999</v>
       </c>
       <c r="G36">
-        <v>0.80700000000000005</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="H36">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1570,25 +1565,25 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.41</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="C37">
-        <v>0.58199999999999996</v>
+        <v>2.6019999999999999</v>
       </c>
       <c r="D37">
-        <v>0.52400000000000002</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="E37">
-        <v>1.4590000000000001</v>
+        <v>1.377</v>
       </c>
       <c r="F37">
-        <v>2.9750000000000001</v>
+        <v>5.2859999999999996</v>
       </c>
       <c r="G37">
-        <v>0.68899999999999995</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="H37">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1596,25 +1591,25 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.36399999999999999</v>
+        <v>1.2929999999999999</v>
       </c>
       <c r="C38">
-        <v>0.56100000000000005</v>
+        <v>4.1130000000000004</v>
       </c>
       <c r="D38">
-        <v>0.57899999999999996</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="E38">
-        <v>1.3360000000000001</v>
+        <v>1.67</v>
       </c>
       <c r="F38">
-        <v>2.84</v>
+        <v>7.6929999999999996</v>
       </c>
       <c r="G38">
-        <v>0.67800000000000005</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1622,48 +1617,48 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.34200000000000003</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="C39">
-        <v>0.41299999999999998</v>
+        <v>2.58</v>
       </c>
       <c r="D39">
-        <v>0.56499999999999995</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="E39">
-        <v>1.7769999999999999</v>
+        <v>1.627</v>
       </c>
       <c r="F39">
-        <v>3.097</v>
+        <v>5.3339999999999996</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="H39">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.33400000000000002</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="C40">
-        <v>0.42499999999999999</v>
+        <v>2.4350000000000001</v>
       </c>
       <c r="D40">
-        <v>0.57799999999999996</v>
+        <v>0.62</v>
       </c>
       <c r="E40">
-        <v>1.5840000000000001</v>
+        <v>1.6659999999999999</v>
       </c>
       <c r="F40">
-        <v>2.9209999999999998</v>
+        <v>4.9980000000000002</v>
       </c>
       <c r="G40">
-        <v>0.877</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="H40">
         <v>34</v>
@@ -1671,25 +1666,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.308</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="C41">
-        <v>0.42399999999999999</v>
+        <v>2.2989999999999999</v>
       </c>
       <c r="D41">
-        <v>0.69599999999999995</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="E41">
-        <v>2.456</v>
+        <v>2.569</v>
       </c>
       <c r="F41">
-        <v>3.8860000000000001</v>
+        <v>5.8220000000000001</v>
       </c>
       <c r="G41">
-        <v>0.79300000000000004</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="H41">
         <v>28</v>
@@ -1697,25 +1692,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.33500000000000002</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="C42">
-        <v>0.56599999999999995</v>
+        <v>2.3090000000000002</v>
       </c>
       <c r="D42">
-        <v>0.59699999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="E42">
-        <v>1.21</v>
+        <v>3.7</v>
       </c>
       <c r="F42">
-        <v>2.7080000000000002</v>
+        <v>6.8869999999999996</v>
       </c>
       <c r="G42">
-        <v>0.55800000000000005</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="H42">
         <v>29</v>
@@ -1723,25 +1718,25 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.316</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="C43">
-        <v>0.51800000000000002</v>
+        <v>2.4470000000000001</v>
       </c>
       <c r="D43">
-        <v>0.625</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="E43">
-        <v>1.3660000000000001</v>
+        <v>2.351</v>
       </c>
       <c r="F43">
-        <v>2.8260000000000001</v>
+        <v>5.6189999999999998</v>
       </c>
       <c r="G43">
-        <v>0.68600000000000005</v>
+        <v>0.67</v>
       </c>
       <c r="H43">
         <v>31</v>
@@ -1749,25 +1744,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.32500000000000001</v>
+        <v>0.625</v>
       </c>
       <c r="C44">
-        <v>0.51100000000000001</v>
+        <v>2.2149999999999999</v>
       </c>
       <c r="D44">
-        <v>0.58099999999999996</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="E44">
-        <v>1.0109999999999999</v>
+        <v>1.22</v>
       </c>
       <c r="F44">
-        <v>2.4289999999999998</v>
+        <v>4.71</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="H44">
         <v>28</v>
@@ -1775,25 +1770,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45">
-        <v>0.35599999999999998</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="C45">
-        <v>0.51200000000000001</v>
+        <v>2.431</v>
       </c>
       <c r="D45">
-        <v>0.52300000000000002</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="E45">
-        <v>1.615</v>
+        <v>2.6080000000000001</v>
       </c>
       <c r="F45">
-        <v>3.0059999999999998</v>
+        <v>5.9009999999999998</v>
       </c>
       <c r="G45">
-        <v>0.88500000000000001</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="H45">
         <v>27</v>
@@ -1801,22 +1796,22 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.314</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="C46">
-        <v>0.48499999999999999</v>
+        <v>2.4390000000000001</v>
       </c>
       <c r="D46">
-        <v>0.57299999999999995</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="E46">
-        <v>1.1619999999999999</v>
+        <v>1.119</v>
       </c>
       <c r="F46">
-        <v>2.5329999999999999</v>
+        <v>4.53</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1827,25 +1822,25 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.58599999999999997</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="C47">
-        <v>0.74299999999999999</v>
+        <v>2.3879999999999999</v>
       </c>
       <c r="D47">
-        <v>0.629</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="E47">
-        <v>2.234</v>
+        <v>2.0419999999999998</v>
       </c>
       <c r="F47">
-        <v>4.1920000000000002</v>
+        <v>5.3490000000000002</v>
       </c>
       <c r="G47">
-        <v>0.97199999999999998</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="H47">
         <v>28</v>
@@ -1853,22 +1848,22 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.317</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="C48">
-        <v>0.47499999999999998</v>
+        <v>2.4390000000000001</v>
       </c>
       <c r="D48">
-        <v>0.62</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="E48">
-        <v>1.6439999999999999</v>
+        <v>1.65</v>
       </c>
       <c r="F48">
-        <v>3.056</v>
+        <v>5.0609999999999999</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -1879,22 +1874,22 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.40100000000000002</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="C49">
-        <v>0.747</v>
+        <v>2.2629999999999999</v>
       </c>
       <c r="D49">
-        <v>0.60599999999999998</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="E49">
-        <v>1.298</v>
+        <v>1.4510000000000001</v>
       </c>
       <c r="F49">
-        <v>3.0529999999999999</v>
+        <v>4.7510000000000003</v>
       </c>
       <c r="G49">
         <v>0.67700000000000005</v>
@@ -1905,25 +1900,25 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>2.7090000000000001</v>
+        <v>0.316</v>
       </c>
       <c r="C50">
-        <v>0.54400000000000004</v>
+        <v>2.52</v>
       </c>
       <c r="D50">
-        <v>0.61299999999999999</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="E50">
-        <v>4.97</v>
+        <v>5.9539999999999997</v>
       </c>
       <c r="F50">
-        <v>8.8360000000000003</v>
+        <v>9.3640000000000008</v>
       </c>
       <c r="G50">
-        <v>0.89500000000000002</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="H50">
         <v>33</v>
@@ -1931,25 +1926,25 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.35899999999999999</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="C51">
-        <v>0.65600000000000003</v>
+        <v>2.448</v>
       </c>
       <c r="D51">
-        <v>0.59199999999999997</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="E51">
-        <v>1.4039999999999999</v>
+        <v>1.4259999999999999</v>
       </c>
       <c r="F51">
-        <v>3.0110000000000001</v>
+        <v>4.9539999999999997</v>
       </c>
       <c r="G51">
-        <v>0.52500000000000002</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="H51">
         <v>31</v>
@@ -1957,48 +1952,48 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52">
-        <v>0.39400000000000002</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="C52">
-        <v>0.442</v>
+        <v>2.4620000000000002</v>
       </c>
       <c r="D52">
-        <v>0.55900000000000005</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="E52">
-        <v>1.5089999999999999</v>
+        <v>1.411</v>
       </c>
       <c r="F52">
-        <v>2.903</v>
+        <v>4.819</v>
       </c>
       <c r="G52">
-        <v>0.77</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="H52">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.72799999999999998</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="C53">
-        <v>0.51</v>
+        <v>2.3780000000000001</v>
       </c>
       <c r="D53">
-        <v>0.57999999999999996</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="E53">
-        <v>1.2070000000000001</v>
+        <v>1.3109999999999999</v>
       </c>
       <c r="F53">
-        <v>3.0249999999999999</v>
+        <v>4.6669999999999998</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2009,22 +2004,22 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.27400000000000002</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="C54">
-        <v>0.47799999999999998</v>
+        <v>2.3540000000000001</v>
       </c>
       <c r="D54">
-        <v>0.59599999999999997</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="E54">
-        <v>1.24</v>
+        <v>1.448</v>
       </c>
       <c r="F54">
-        <v>2.5880000000000001</v>
+        <v>4.7759999999999998</v>
       </c>
       <c r="G54">
         <v>0.88200000000000001</v>
@@ -2035,25 +2030,25 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.36499999999999999</v>
+        <v>0.32</v>
       </c>
       <c r="C55">
-        <v>0.48199999999999998</v>
+        <v>2.6949999999999998</v>
       </c>
       <c r="D55">
-        <v>0.54800000000000004</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="E55">
-        <v>1.3640000000000001</v>
+        <v>1.4119999999999999</v>
       </c>
       <c r="F55">
-        <v>2.76</v>
+        <v>5.0149999999999997</v>
       </c>
       <c r="G55">
-        <v>0.86799999999999999</v>
+        <v>0.877</v>
       </c>
       <c r="H55">
         <v>34</v>
@@ -2061,25 +2056,25 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.26400000000000001</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="C56">
-        <v>0.41</v>
+        <v>2.3679999999999999</v>
       </c>
       <c r="D56">
-        <v>0.55900000000000005</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="E56">
-        <v>1.3680000000000001</v>
+        <v>1.4059999999999999</v>
       </c>
       <c r="F56">
-        <v>2.6</v>
+        <v>4.6779999999999999</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="H56">
         <v>33</v>
@@ -2087,51 +2082,51 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.88700000000000001</v>
+        <v>0.318</v>
       </c>
       <c r="C57">
-        <v>0.42399999999999999</v>
+        <v>2.5920000000000001</v>
       </c>
       <c r="D57">
-        <v>0.58599999999999997</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="E57">
-        <v>1.3340000000000001</v>
+        <v>1.304</v>
       </c>
       <c r="F57">
-        <v>3.2309999999999999</v>
+        <v>4.7690000000000001</v>
       </c>
       <c r="G57">
         <v>0.48299999999999998</v>
       </c>
       <c r="H57">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.32900000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C58">
-        <v>0.42399999999999999</v>
+        <v>2.46</v>
       </c>
       <c r="D58">
-        <v>0.54700000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E58">
-        <v>1.492</v>
+        <v>1.871</v>
       </c>
       <c r="F58">
-        <v>2.7909999999999999</v>
+        <v>5.181</v>
       </c>
       <c r="G58">
-        <v>0.75700000000000001</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="H58">
         <v>30</v>
@@ -2139,77 +2134,77 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.40899999999999997</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="C59">
-        <v>0.46500000000000002</v>
+        <v>2.238</v>
       </c>
       <c r="D59">
-        <v>0.79600000000000004</v>
+        <v>0.62</v>
       </c>
       <c r="E59">
-        <v>1.64</v>
+        <v>1.609</v>
       </c>
       <c r="F59">
-        <v>3.31</v>
+        <v>4.7590000000000003</v>
       </c>
       <c r="G59">
         <v>0.877</v>
       </c>
       <c r="H59">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.375</v>
+        <v>0.371</v>
       </c>
       <c r="C60">
-        <v>0.47199999999999998</v>
+        <v>2.3159999999999998</v>
       </c>
       <c r="D60">
-        <v>0.55700000000000005</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="E60">
-        <v>1.98</v>
+        <v>1.857</v>
       </c>
       <c r="F60">
-        <v>3.3839999999999999</v>
+        <v>5.1319999999999997</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.34200000000000003</v>
+        <v>0.316</v>
       </c>
       <c r="C61">
-        <v>0.41199999999999998</v>
+        <v>2.1269999999999998</v>
       </c>
       <c r="D61">
-        <v>0.61399999999999999</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="E61">
-        <v>1.5920000000000001</v>
+        <v>2.1629999999999998</v>
       </c>
       <c r="F61">
-        <v>2.9609999999999999</v>
+        <v>5.1390000000000002</v>
       </c>
       <c r="G61">
-        <v>0.78100000000000003</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="H61">
         <v>21</v>
@@ -2221,76 +2216,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284C11C7-5E5A-489E-851C-00F26F2C299B}">
-  <dimension ref="B5:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CB2649-3E40-4E8B-9D42-C5CD83A19B1C}">
+  <dimension ref="B5:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5">
+        <f>ROUND(AVERAGE(Sheet1!B2:B61),2)</f>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>68</v>
       </c>
-      <c r="H5">
-        <f>ROUND(AVERAGE(Sheet1!B2:B61),2)</f>
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="G7">
+        <f>ROUND(AVERAGE(Sheet1!C2:C61),2)</f>
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>69</v>
       </c>
-      <c r="H7">
-        <f>ROUND(AVERAGE(Sheet1!C2:C61),2)</f>
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9">
+      <c r="G9">
         <f>ROUND(AVERAGE(Sheet1!D2:D61),2)</f>
         <v>0.59</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11">
+        <f>ROUND(AVERAGE(Sheet1!E2:E61),2)</f>
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>71</v>
       </c>
-      <c r="H11">
-        <f>ROUND(AVERAGE(Sheet1!E2:E61),2)</f>
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="G13">
+        <f>ROUND(AVERAGE(Sheet1!F2:F61),2)</f>
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>72</v>
       </c>
-      <c r="H13">
-        <f>ROUND(AVERAGE(Sheet1!F2:F61),2)</f>
-        <v>3.18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+      <c r="G15">
+        <f>ROUND(AVERAGE(Sheet1!G2:G61),2)</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>73</v>
       </c>
-      <c r="H15">
-        <f>ROUND(AVERAGE(Sheet1!G2:G61),2)</f>
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17">
+      <c r="G17">
         <f>ROUND(AVERAGE(Sheet1!H2:H61),2)</f>
-        <v>31.08</v>
+        <v>31.02</v>
       </c>
     </row>
   </sheetData>
